--- a/Completed Projects/Trifit T1 Karachi/BOQ/Final Proposal for Trifit Com T1.xlsx
+++ b/Completed Projects/Trifit T1 Karachi/BOQ/Final Proposal for Trifit Com T1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\Trifit T1 Karachi\BOQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Trifit T1 Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D15732-3AF5-461E-B36D-B3C6A690D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613224D8-27FE-4049-A018-E8EF3A4BDA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="55" r:id="rId1"/>
@@ -660,11 +660,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="General_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2184,27 +2184,27 @@
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2225,7 +2225,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2243,7 +2243,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2264,7 +2264,7 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2285,13 +2285,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2512,7 +2512,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2521,19 +2521,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2554,22 +2554,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="64" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="64" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2578,16 +2578,16 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="68" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="68" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2599,13 +2599,13 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2617,43 +2617,43 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="66" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="66" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2665,7 +2665,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2698,7 +2698,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2733,19 +2733,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="42" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="42" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="43" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="43" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="51" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="18" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="18" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2763,23 +2763,23 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="76" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="77" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="77" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="78" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="78" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="79" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="79" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="80" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="80" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="42" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="43" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="42" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="43" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="51" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
@@ -2807,10 +2807,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="81" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="81" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="81" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="81" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2819,8 +2819,8 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="54" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="54" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="24" fillId="2" borderId="54" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2854,7 +2854,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2863,10 +2863,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2876,16 +2876,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2900,19 +2900,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2924,23 +2924,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2953,19 +2953,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="75" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="75" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="88" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="88" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="80" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="80" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2974,16 +2974,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2992,10 +2992,10 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3016,55 +3016,81 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="89" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="96" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="98" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="99" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3124,10 +3150,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3135,32 +3161,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="96" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="98" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="99" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -3204,16 +3204,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>543638</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>153300</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>353138</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3236,8 +3236,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16078200" y="238125"/>
+          <a:off x="14516100" y="1562100"/>
           <a:ext cx="5106113" cy="6449325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>553667</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>96266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADD407C-1539-E759-32DB-FC6663C0F260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848349" y="981075"/>
+          <a:ext cx="7116393" cy="7278116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>553317</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2B3810-86ED-9165-BB21-AC89A7BA38C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12925425" y="1057275"/>
+          <a:ext cx="6211167" cy="7468642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3253,16 +3341,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>153089</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>20127</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>448364</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>134427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3285,7 +3373,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9782175" y="1590675"/>
+          <a:off x="13611225" y="1343025"/>
           <a:ext cx="5810939" cy="7678227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3297,16 +3385,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>991588</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19918</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543913</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>172318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3329,7 +3417,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="4676775"/>
+          <a:off x="10210800" y="2114550"/>
           <a:ext cx="5877913" cy="6220693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3341,16 +3429,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3373,7 +3461,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4886325"/>
+          <a:off x="10934700" y="923925"/>
           <a:ext cx="6924675" cy="7477125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3743,8 +3831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7F6A87-0299-43B3-BD32-1871B856B448}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3772,13 +3860,13 @@
       <c r="E3" s="220"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="316" t="s">
+      <c r="A4" s="326" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="316"/>
-      <c r="C4" s="316"/>
-      <c r="D4" s="316"/>
-      <c r="E4" s="316"/>
+      <c r="B4" s="326"/>
+      <c r="C4" s="326"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="326"/>
       <c r="F4" s="205"/>
       <c r="G4" s="205"/>
       <c r="H4" s="205"/>
@@ -3794,32 +3882,32 @@
       <c r="H5" s="205"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="317" t="s">
+      <c r="A6" s="327" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="317"/>
-      <c r="C6" s="317"/>
-      <c r="D6" s="317"/>
-      <c r="E6" s="317"/>
+      <c r="B6" s="327"/>
+      <c r="C6" s="327"/>
+      <c r="D6" s="327"/>
+      <c r="E6" s="327"/>
       <c r="F6" s="205"/>
       <c r="G6" s="205"/>
       <c r="H6" s="205"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="318"/>
-      <c r="B7" s="318"/>
-      <c r="C7" s="318"/>
-      <c r="D7" s="318"/>
-      <c r="E7" s="318"/>
+      <c r="A7" s="328"/>
+      <c r="B7" s="328"/>
+      <c r="C7" s="328"/>
+      <c r="D7" s="328"/>
+      <c r="E7" s="328"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="319" t="s">
+      <c r="A8" s="329" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="319"/>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
+      <c r="B8" s="329"/>
+      <c r="C8" s="329"/>
+      <c r="D8" s="329"/>
+      <c r="E8" s="329"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="207"/>
@@ -3832,23 +3920,23 @@
       <c r="A10" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="320" t="s">
+      <c r="B10" s="330" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="320"/>
+      <c r="C10" s="330"/>
       <c r="D10" s="211"/>
       <c r="E10" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="312" t="s">
+      <c r="G10" s="322" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="312"/>
+      <c r="H10" s="322"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="213"/>
-      <c r="B11" s="321"/>
-      <c r="C11" s="322"/>
+      <c r="B11" s="331"/>
+      <c r="C11" s="332"/>
       <c r="D11" s="213"/>
       <c r="E11" s="214"/>
       <c r="G11" s="293" t="s">
@@ -3866,10 +3954,10 @@
       <c r="A12" s="213">
         <v>1</v>
       </c>
-      <c r="B12" s="323" t="s">
+      <c r="B12" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="324"/>
+      <c r="C12" s="334"/>
       <c r="D12" s="213" t="s">
         <v>94</v>
       </c>
@@ -3890,8 +3978,8 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="213"/>
-      <c r="B13" s="323"/>
-      <c r="C13" s="324"/>
+      <c r="B13" s="333"/>
+      <c r="C13" s="334"/>
       <c r="D13" s="213"/>
       <c r="E13" s="214"/>
       <c r="G13" s="293" t="s">
@@ -3910,10 +3998,10 @@
       <c r="A14" s="213">
         <v>2</v>
       </c>
-      <c r="B14" s="323" t="s">
+      <c r="B14" s="333" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="324"/>
+      <c r="C14" s="334"/>
       <c r="D14" s="213" t="s">
         <v>94</v>
       </c>
@@ -3927,8 +4015,8 @@
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="213"/>
-      <c r="B15" s="325"/>
-      <c r="C15" s="325"/>
+      <c r="B15" s="335"/>
+      <c r="C15" s="335"/>
       <c r="D15" s="213"/>
       <c r="E15" s="214"/>
       <c r="G15" s="300"/>
@@ -3936,10 +4024,10 @@
     </row>
     <row r="16" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="216"/>
-      <c r="B16" s="314" t="s">
+      <c r="B16" s="324" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="315"/>
+      <c r="C16" s="325"/>
       <c r="D16" s="217"/>
       <c r="E16" s="219">
         <f>SUM(E11:E15)</f>
@@ -3989,13 +4077,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="313" t="s">
+      <c r="A22" s="323" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="313"/>
-      <c r="C22" s="313"/>
-      <c r="D22" s="313"/>
-      <c r="E22" s="313"/>
+      <c r="B22" s="323"/>
+      <c r="C22" s="323"/>
+      <c r="D22" s="323"/>
+      <c r="E22" s="323"/>
       <c r="G22" s="295"/>
       <c r="H22" s="298"/>
       <c r="I22" s="309">
@@ -4004,11 +4092,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="313"/>
-      <c r="B23" s="313"/>
-      <c r="C23" s="313"/>
-      <c r="D23" s="313"/>
-      <c r="E23" s="313"/>
+      <c r="A23" s="323"/>
+      <c r="B23" s="323"/>
+      <c r="C23" s="323"/>
+      <c r="D23" s="323"/>
+      <c r="E23" s="323"/>
       <c r="G23" s="295" t="s">
         <v>131</v>
       </c>
@@ -4018,45 +4106,45 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="313"/>
-      <c r="B24" s="313"/>
-      <c r="C24" s="313"/>
-      <c r="D24" s="313"/>
-      <c r="E24" s="313"/>
+      <c r="A24" s="323"/>
+      <c r="B24" s="323"/>
+      <c r="C24" s="323"/>
+      <c r="D24" s="323"/>
+      <c r="E24" s="323"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="313"/>
-      <c r="B25" s="313"/>
-      <c r="C25" s="313"/>
-      <c r="D25" s="313"/>
-      <c r="E25" s="313"/>
+      <c r="A25" s="323"/>
+      <c r="B25" s="323"/>
+      <c r="C25" s="323"/>
+      <c r="D25" s="323"/>
+      <c r="E25" s="323"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="313"/>
-      <c r="B26" s="313"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="313"/>
-      <c r="E26" s="313"/>
+      <c r="A26" s="323"/>
+      <c r="B26" s="323"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="323"/>
+      <c r="E26" s="323"/>
       <c r="H26">
         <v>852739</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="313"/>
-      <c r="B27" s="313"/>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="313"/>
+      <c r="A27" s="323"/>
+      <c r="B27" s="323"/>
+      <c r="C27" s="323"/>
+      <c r="D27" s="323"/>
+      <c r="E27" s="323"/>
       <c r="H27">
         <v>556158</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="313"/>
-      <c r="B28" s="313"/>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="313"/>
+      <c r="A28" s="323"/>
+      <c r="B28" s="323"/>
+      <c r="C28" s="323"/>
+      <c r="D28" s="323"/>
+      <c r="E28" s="323"/>
       <c r="H28">
         <v>743276</v>
       </c>
@@ -4272,13 +4360,13 @@
       <c r="B8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="326" t="s">
+      <c r="F8" s="336" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="326"/>
-      <c r="H8" s="326"/>
-      <c r="I8" s="326"/>
-      <c r="J8" s="326"/>
+      <c r="G8" s="336"/>
+      <c r="H8" s="336"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="336"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -4286,23 +4374,23 @@
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="327" t="s">
+      <c r="F9" s="337" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="328"/>
-      <c r="H9" s="329" t="s">
+      <c r="G9" s="338"/>
+      <c r="H9" s="339" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="328"/>
+      <c r="I9" s="338"/>
       <c r="J9" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="27" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="331" t="s">
+      <c r="A10" s="341" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="332"/>
+      <c r="B10" s="342"/>
       <c r="C10" s="21" t="s">
         <v>0</v>
       </c>
@@ -6534,65 +6622,65 @@
       <c r="A82" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="330" t="s">
+      <c r="B82" s="340" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="330"/>
-      <c r="D82" s="330"/>
-      <c r="E82" s="330"/>
-      <c r="F82" s="330"/>
-      <c r="G82" s="330"/>
-      <c r="H82" s="330"/>
-      <c r="I82" s="330"/>
-      <c r="J82" s="330"/>
+      <c r="C82" s="340"/>
+      <c r="D82" s="340"/>
+      <c r="E82" s="340"/>
+      <c r="F82" s="340"/>
+      <c r="G82" s="340"/>
+      <c r="H82" s="340"/>
+      <c r="I82" s="340"/>
+      <c r="J82" s="340"/>
     </row>
     <row r="83" spans="1:10" s="180" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="330" t="s">
+      <c r="B83" s="340" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="330"/>
-      <c r="D83" s="330"/>
-      <c r="E83" s="330"/>
-      <c r="F83" s="330"/>
-      <c r="G83" s="330"/>
-      <c r="H83" s="330"/>
-      <c r="I83" s="330"/>
-      <c r="J83" s="330"/>
+      <c r="C83" s="340"/>
+      <c r="D83" s="340"/>
+      <c r="E83" s="340"/>
+      <c r="F83" s="340"/>
+      <c r="G83" s="340"/>
+      <c r="H83" s="340"/>
+      <c r="I83" s="340"/>
+      <c r="J83" s="340"/>
     </row>
     <row r="84" spans="1:10" s="180" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="B84" s="330" t="s">
+      <c r="B84" s="340" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="330"/>
-      <c r="D84" s="330"/>
-      <c r="E84" s="330"/>
-      <c r="F84" s="330"/>
-      <c r="G84" s="330"/>
-      <c r="H84" s="330"/>
-      <c r="I84" s="330"/>
-      <c r="J84" s="330"/>
+      <c r="C84" s="340"/>
+      <c r="D84" s="340"/>
+      <c r="E84" s="340"/>
+      <c r="F84" s="340"/>
+      <c r="G84" s="340"/>
+      <c r="H84" s="340"/>
+      <c r="I84" s="340"/>
+      <c r="J84" s="340"/>
     </row>
     <row r="85" spans="1:10" s="180" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="330" t="s">
+      <c r="B85" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="330"/>
-      <c r="D85" s="330"/>
-      <c r="E85" s="330"/>
-      <c r="F85" s="330"/>
-      <c r="G85" s="330"/>
-      <c r="H85" s="330"/>
-      <c r="I85" s="330"/>
-      <c r="J85" s="330"/>
+      <c r="C85" s="340"/>
+      <c r="D85" s="340"/>
+      <c r="E85" s="340"/>
+      <c r="F85" s="340"/>
+      <c r="G85" s="340"/>
+      <c r="H85" s="340"/>
+      <c r="I85" s="340"/>
+      <c r="J85" s="340"/>
     </row>
     <row r="91" spans="1:10" s="185" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="181"/>
@@ -6768,13 +6856,13 @@
       <c r="B8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="326" t="s">
+      <c r="F8" s="336" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="326"/>
-      <c r="H8" s="326"/>
-      <c r="I8" s="326"/>
-      <c r="J8" s="326"/>
+      <c r="G8" s="336"/>
+      <c r="H8" s="336"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="336"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -6782,23 +6870,23 @@
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="327" t="s">
+      <c r="F9" s="337" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="328"/>
-      <c r="H9" s="329" t="s">
+      <c r="G9" s="338"/>
+      <c r="H9" s="339" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="328"/>
+      <c r="I9" s="338"/>
       <c r="J9" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="27" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="331" t="s">
+      <c r="A10" s="341" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="332"/>
+      <c r="B10" s="342"/>
       <c r="C10" s="21" t="s">
         <v>0</v>
       </c>
@@ -7679,65 +7767,65 @@
       <c r="A40" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="330" t="s">
+      <c r="B40" s="340" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="330"/>
-      <c r="D40" s="330"/>
-      <c r="E40" s="330"/>
-      <c r="F40" s="330"/>
-      <c r="G40" s="330"/>
-      <c r="H40" s="330"/>
-      <c r="I40" s="330"/>
-      <c r="J40" s="330"/>
+      <c r="C40" s="340"/>
+      <c r="D40" s="340"/>
+      <c r="E40" s="340"/>
+      <c r="F40" s="340"/>
+      <c r="G40" s="340"/>
+      <c r="H40" s="340"/>
+      <c r="I40" s="340"/>
+      <c r="J40" s="340"/>
     </row>
     <row r="41" spans="1:14" s="180" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="330" t="s">
+      <c r="B41" s="340" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="330"/>
-      <c r="D41" s="330"/>
-      <c r="E41" s="330"/>
-      <c r="F41" s="330"/>
-      <c r="G41" s="330"/>
-      <c r="H41" s="330"/>
-      <c r="I41" s="330"/>
-      <c r="J41" s="330"/>
+      <c r="C41" s="340"/>
+      <c r="D41" s="340"/>
+      <c r="E41" s="340"/>
+      <c r="F41" s="340"/>
+      <c r="G41" s="340"/>
+      <c r="H41" s="340"/>
+      <c r="I41" s="340"/>
+      <c r="J41" s="340"/>
     </row>
     <row r="42" spans="1:14" s="180" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="330" t="s">
+      <c r="B42" s="340" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="330"/>
-      <c r="D42" s="330"/>
-      <c r="E42" s="330"/>
-      <c r="F42" s="330"/>
-      <c r="G42" s="330"/>
-      <c r="H42" s="330"/>
-      <c r="I42" s="330"/>
-      <c r="J42" s="330"/>
+      <c r="C42" s="340"/>
+      <c r="D42" s="340"/>
+      <c r="E42" s="340"/>
+      <c r="F42" s="340"/>
+      <c r="G42" s="340"/>
+      <c r="H42" s="340"/>
+      <c r="I42" s="340"/>
+      <c r="J42" s="340"/>
     </row>
     <row r="43" spans="1:14" s="180" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="330" t="s">
+      <c r="B43" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="330"/>
-      <c r="D43" s="330"/>
-      <c r="E43" s="330"/>
-      <c r="F43" s="330"/>
-      <c r="G43" s="330"/>
-      <c r="H43" s="330"/>
-      <c r="I43" s="330"/>
-      <c r="J43" s="330"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+      <c r="G43" s="340"/>
+      <c r="H43" s="340"/>
+      <c r="I43" s="340"/>
+      <c r="J43" s="340"/>
     </row>
     <row r="49" spans="1:5" s="185" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="181"/>
@@ -7789,7 +7877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D772128-B68A-4A4F-BEE0-9F4BFAE1E3F6}">
   <dimension ref="A3:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -7807,13 +7895,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="343" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D4" s="303" t="s">
@@ -7851,27 +7939,27 @@
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="335" t="s">
+      <c r="A10" s="312" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="336" t="s">
+      <c r="B10" s="313" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="337" t="s">
+      <c r="C10" s="314" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="337" t="s">
+      <c r="D10" s="314" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="337" t="s">
+      <c r="E10" s="314" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="338" t="s">
+      <c r="F10" s="315" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="339" t="s">
+      <c r="A11" s="316" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="311">
@@ -7885,20 +7973,20 @@
       <c r="E11" s="311">
         <v>789350</v>
       </c>
-      <c r="F11" s="340">
+      <c r="F11" s="317">
         <v>5398174</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="339"/>
+      <c r="A12" s="316"/>
       <c r="B12" s="311"/>
       <c r="C12" s="311"/>
       <c r="D12" s="311"/>
       <c r="E12" s="311"/>
-      <c r="F12" s="340"/>
+      <c r="F12" s="317"/>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="339" t="s">
+      <c r="A13" s="316" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="311">
@@ -7906,7 +7994,7 @@
         <v>3716897</v>
       </c>
       <c r="C13" s="311">
-        <f t="shared" ref="C13:E13" si="0">C11*20%</f>
+        <f t="shared" ref="C13:D13" si="0">C11*20%</f>
         <v>3716897</v>
       </c>
       <c r="D13" s="311">
@@ -7914,12 +8002,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="311"/>
-      <c r="F13" s="340"/>
+      <c r="F13" s="317"/>
       <c r="H13" s="308"/>
       <c r="I13" s="308"/>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="339" t="s">
+      <c r="A14" s="316" t="s">
         <v>143</v>
       </c>
       <c r="B14" s="311">
@@ -7927,7 +8015,7 @@
         <v>929224.25</v>
       </c>
       <c r="C14" s="311">
-        <f t="shared" ref="C14:E14" si="1">C11*5%</f>
+        <f t="shared" ref="C14:D14" si="1">C11*5%</f>
         <v>929224.25</v>
       </c>
       <c r="D14" s="311">
@@ -7935,20 +8023,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="311"/>
-      <c r="F14" s="340"/>
+      <c r="F14" s="317"/>
       <c r="H14" s="308"/>
       <c r="I14" s="308"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="339"/>
+      <c r="A15" s="316"/>
       <c r="B15" s="311"/>
       <c r="C15" s="311"/>
       <c r="D15" s="311"/>
       <c r="E15" s="311"/>
-      <c r="F15" s="340"/>
+      <c r="F15" s="317"/>
     </row>
     <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="339" t="s">
+      <c r="A16" s="316" t="s">
         <v>145</v>
       </c>
       <c r="B16" s="311">
@@ -7967,23 +8055,23 @@
         <f t="shared" si="2"/>
         <v>789350</v>
       </c>
-      <c r="F16" s="340">
+      <c r="F16" s="317">
         <v>5398174</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="339"/>
+      <c r="A17" s="316"/>
       <c r="B17" s="311"/>
       <c r="C17" s="311"/>
       <c r="D17" s="311"/>
       <c r="E17" s="311"/>
-      <c r="F17" s="340"/>
+      <c r="F17" s="317"/>
       <c r="H17" s="309"/>
       <c r="I17" s="309"/>
       <c r="J17" s="309"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="339" t="s">
+      <c r="A18" s="316" t="s">
         <v>147</v>
       </c>
       <c r="B18" s="311"/>
@@ -7992,50 +8080,50 @@
       <c r="E18" s="311">
         <v>1437123</v>
       </c>
-      <c r="F18" s="340">
+      <c r="F18" s="317">
         <v>4750389</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="341"/>
+      <c r="A19" s="318"/>
       <c r="B19" s="311"/>
       <c r="C19" s="311"/>
       <c r="D19" s="311"/>
       <c r="E19" s="311"/>
-      <c r="F19" s="340"/>
+      <c r="F19" s="317"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="339" t="s">
+      <c r="A20" s="316" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="340">
+      <c r="B20" s="317">
         <f t="shared" ref="B20:E20" si="3">B16-B18</f>
         <v>20125887.75</v>
       </c>
-      <c r="C20" s="340">
+      <c r="C20" s="317">
         <f t="shared" si="3"/>
         <v>13938363.75</v>
       </c>
-      <c r="D20" s="340">
+      <c r="D20" s="317">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E20" s="340">
+      <c r="E20" s="317">
         <f t="shared" si="3"/>
         <v>-647773</v>
       </c>
-      <c r="F20" s="340">
+      <c r="F20" s="317">
         <f>F16-F18</f>
         <v>647785</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="342"/>
-      <c r="B21" s="343"/>
-      <c r="C21" s="343"/>
-      <c r="D21" s="343"/>
-      <c r="E21" s="343"/>
-      <c r="F21" s="344"/>
+      <c r="A21" s="319"/>
+      <c r="B21" s="320"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
+      <c r="F21" s="321"/>
       <c r="H21">
         <v>789350</v>
       </c>
